--- a/classfiers/mega/svm/mega-svm-default-results.xlsx
+++ b/classfiers/mega/svm/mega-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5595238095238095</v>
+        <v>0.5657894736842105</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="D2" t="n">
-        <v>0.712121212121212</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8697356630824373</v>
+        <v>0.8782947821409359</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9894736842105264</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9988799283154122</v>
+        <v>0.9986551909628832</v>
       </c>
     </row>
     <row r="4">
@@ -527,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9787234042553191</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.989247311827957</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9714285714285714</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="C6" t="n">
-        <v>0.723404255319149</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8292682926829269</v>
+        <v>0.810810810810811</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9978265843056509</v>
+        <v>0.9980734828677584</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9061904761904762</v>
+        <v>0.9067062818336163</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9320921985815602</v>
+        <v>0.9304439746300212</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9040221001685245</v>
+        <v>0.9031966449207829</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9732884351407002</v>
+        <v>0.9750046911943155</v>
       </c>
     </row>
   </sheetData>
